--- a/stats/bryum/mean_measuring_active_ETR_moss_monthly.xlsx
+++ b/stats/bryum/mean_measuring_active_ETR_moss_monthly.xlsx
@@ -536,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2125896057348</v>
+        <v>42.783101702509</v>
       </c>
       <c r="D11" t="n">
-        <v>221.366666666667</v>
+        <v>269.322666666667</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>35.3710573476701</v>
+        <v>48.4471285842293</v>
       </c>
       <c r="D12" t="n">
-        <v>209.3</v>
+        <v>277.519333333333</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0837301587301592</v>
+        <v>0.0238963293650794</v>
       </c>
       <c r="D13" t="n">
-        <v>9.76666666666667</v>
+        <v>4.66966666666667</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>29.1561379928316</v>
+        <v>40.1516666666667</v>
       </c>
       <c r="D15" t="n">
-        <v>198</v>
+        <v>268.195333333333</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0663082437277</v>
+        <v>13.4003042114696</v>
       </c>
       <c r="D16" t="n">
-        <v>217.8</v>
+        <v>291.598666666667</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>

--- a/stats/bryum/mean_measuring_active_ETR_moss_monthly.xlsx
+++ b/stats/bryum/mean_measuring_active_ETR_moss_monthly.xlsx
@@ -536,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>42.783101702509</v>
+        <v>34.2125896057348</v>
       </c>
       <c r="D11" t="n">
-        <v>269.322666666667</v>
+        <v>221.366666666667</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>48.4471285842293</v>
+        <v>35.3710573476701</v>
       </c>
       <c r="D12" t="n">
-        <v>277.519333333333</v>
+        <v>209.3</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0238963293650794</v>
+        <v>0.0837301587301592</v>
       </c>
       <c r="D13" t="n">
-        <v>4.66966666666667</v>
+        <v>9.76666666666667</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>40.1516666666667</v>
+        <v>29.1561379928316</v>
       </c>
       <c r="D15" t="n">
-        <v>268.195333333333</v>
+        <v>198</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>13.4003042114696</v>
+        <v>10.0663082437277</v>
       </c>
       <c r="D16" t="n">
-        <v>291.598666666667</v>
+        <v>217.8</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>

--- a/stats/bryum/mean_measuring_active_ETR_moss_monthly.xlsx
+++ b/stats/bryum/mean_measuring_active_ETR_moss_monthly.xlsx
@@ -1,40 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/bryum/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_60C6943C851F6E242311068B9EA95A8AE3F4F7FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B0373E-3796-AC44-9028-60F185878DD7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Year</t>
+    <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Month</t>
+    <t>Month</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_ETR</t>
+    <t>mean_ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">max_ETR</t>
+    <t>max_ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">min_ETR</t>
+    <t>min_ETR</t>
+  </si>
+  <si>
+    <t>Bryum_X1</t>
+  </si>
+  <si>
+    <t>Bryum_X2</t>
+  </si>
+  <si>
+    <t>Bryum_X4</t>
+  </si>
+  <si>
+    <t>Austroplaca_X3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,13 +95,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,304 +396,798 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="7" width="10.83203125" style="1"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="12" max="13" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.000833333333333343</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.50000000000003E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4.1666666666666102E-3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2019</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B4">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
-        <v>32.2173387096774</v>
-      </c>
-      <c r="D3" t="n">
-        <v>222.566666666667</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="C4" s="1">
+        <v>24.749596774193499</v>
+      </c>
+      <c r="D4" s="1">
+        <v>203.1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50.264919354838803</v>
+      </c>
+      <c r="G4" s="1">
+        <v>377.4</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>21.637499999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>11.559946236559099</v>
+      </c>
+      <c r="M4" s="1">
+        <v>83.8</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2020</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>52.9685011185682</v>
-      </c>
-      <c r="D4" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C5" s="1">
+        <v>62.995704697986604</v>
+      </c>
+      <c r="D5" s="1">
+        <v>203.3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>64.611812080536893</v>
+      </c>
+      <c r="G5" s="1">
+        <v>373.8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>31.297986577181199</v>
+      </c>
+      <c r="J5" s="1">
+        <v>126.7</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>15.9531543624161</v>
+      </c>
+      <c r="M5" s="1">
+        <v>147.5</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2020</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.63414750957854</v>
-      </c>
-      <c r="D5" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C6" s="1">
+        <v>1.0757183908046</v>
+      </c>
+      <c r="D6" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.0545977011494201</v>
+      </c>
+      <c r="G6" s="1">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.77212643678161197</v>
+      </c>
+      <c r="J6" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.27241379310345</v>
+      </c>
+      <c r="M6" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2020</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B7">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2020</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B8">
         <v>12</v>
       </c>
-      <c r="C7" t="n">
-        <v>25.3089157706094</v>
-      </c>
-      <c r="D7" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C8" s="1">
+        <v>18.757661290322702</v>
+      </c>
+      <c r="D8" s="1">
+        <v>111.2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42.279435483871097</v>
+      </c>
+      <c r="G8" s="1">
+        <v>367.8</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>14.8896505376345</v>
+      </c>
+      <c r="J8" s="1">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>15.580376344086</v>
+      </c>
+      <c r="M8" s="1">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2021</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>45.1681899641577</v>
-      </c>
-      <c r="D8" t="n">
-        <v>219.9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="C9" s="1">
+        <v>50.6434139784946</v>
+      </c>
+      <c r="D9" s="1">
+        <v>132.9</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>54.8819892473118</v>
+      </c>
+      <c r="G9" s="1">
+        <v>385.8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>29.9791666666667</v>
+      </c>
+      <c r="J9" s="1">
+        <v>141</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>18.502016129032299</v>
+      </c>
+      <c r="M9" s="1">
+        <v>129.1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2021</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.44632936507937</v>
-      </c>
-      <c r="D9" t="n">
-        <v>87.9333333333333</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C10" s="1">
+        <v>2.6425595238095299</v>
+      </c>
+      <c r="D10" s="1">
+        <v>111.7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.54464285714286198</v>
+      </c>
+      <c r="G10" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.15178571428572</v>
+      </c>
+      <c r="J10" s="1">
+        <v>105.4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.48020833333335</v>
+      </c>
+      <c r="M10" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2021</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11">
         <v>11</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.8148228111111698E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="C11" t="n">
-        <v>34.2125896057348</v>
-      </c>
-      <c r="D11" t="n">
-        <v>221.366666666667</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="C12" s="1">
+        <v>30.584677419354801</v>
+      </c>
+      <c r="D12" s="1">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>53.436155913978503</v>
+      </c>
+      <c r="G12" s="1">
+        <v>404.8</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>18.616935483871</v>
+      </c>
+      <c r="J12" s="1">
+        <v>104.1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>47.445397568208399</v>
+      </c>
+      <c r="M12" s="1">
+        <v>361.56599999999997</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>35.3710573476701</v>
-      </c>
-      <c r="D12" t="n">
-        <v>209.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="C13" s="1">
+        <v>33.649731182795499</v>
+      </c>
+      <c r="D13" s="1">
+        <v>149.4</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42.627150537634201</v>
+      </c>
+      <c r="G13" s="1">
+        <v>330.3</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>29.836290322580599</v>
+      </c>
+      <c r="J13" s="1">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>41.219888440860203</v>
+      </c>
+      <c r="M13" s="1">
+        <v>373.39400000000001</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.0837301587301592</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9.76666666666667</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9.6726190476191208E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.24151785714285801</v>
+      </c>
+      <c r="J14" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.54254315476189996</v>
+      </c>
+      <c r="M14" s="1">
+        <v>46.54</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2022</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.0130092592592591</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.9027777777777398E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>8.7930555555555696E-3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>2022</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C15" t="n">
-        <v>29.1561379928316</v>
-      </c>
-      <c r="D15" t="n">
-        <v>198</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="C16" s="1">
+        <v>23.9861559139785</v>
+      </c>
+      <c r="D16" s="1">
+        <v>203.8</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>39.596774193548399</v>
+      </c>
+      <c r="G16" s="1">
+        <v>237.7</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>23.8854838709677</v>
+      </c>
+      <c r="J16" s="1">
+        <v>152.5</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>26.4007096774193</v>
+      </c>
+      <c r="M16" s="1">
+        <v>489.99799999999999</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2023</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>10.0663082437277</v>
-      </c>
-      <c r="D16" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="C17" s="1">
+        <v>17.710215053763498</v>
+      </c>
+      <c r="D17" s="1">
+        <v>170.5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.2456989247311796</v>
+      </c>
+      <c r="G17" s="1">
+        <v>322.60000000000002</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7.2430107526882699</v>
+      </c>
+      <c r="J17" s="1">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>12.6349986559139</v>
+      </c>
+      <c r="M17" s="1">
+        <v>465.6</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2023</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>